--- a/cookie_compliance_analysis.xlsx
+++ b/cookie_compliance_analysis.xlsx
@@ -4173,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4621,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="b">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="b">
         <v>0</v>
@@ -5570,10 +5570,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="b">
         <v>0</v>
@@ -7138,10 +7138,10 @@
         <v>1</v>
       </c>
       <c r="Q61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -7913,10 +7913,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -8302,10 +8302,10 @@
         <v>1</v>
       </c>
       <c r="Q82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="Q149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149" t="b">
         <v>0</v>
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="Q161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R161" t="b">
         <v>0</v>
@@ -12826,10 +12826,10 @@
         <v>1</v>
       </c>
       <c r="Q163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -12991,10 +12991,10 @@
         <v>1</v>
       </c>
       <c r="Q166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="Q167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R167" t="b">
         <v>0</v>
@@ -14329,10 +14329,10 @@
         <v>1</v>
       </c>
       <c r="Q190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="Q199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R199" t="b">
         <v>0</v>
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="Q205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R205" t="b">
         <v>0</v>
@@ -16050,10 +16050,10 @@
         <v>1</v>
       </c>
       <c r="Q221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -17998,10 +17998,10 @@
         <v>1</v>
       </c>
       <c r="Q256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -18054,10 +18054,10 @@
         <v>1</v>
       </c>
       <c r="Q257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -18502,10 +18502,10 @@
         <v>1</v>
       </c>
       <c r="Q265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -18670,10 +18670,10 @@
         <v>1</v>
       </c>
       <c r="Q268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -19003,10 +19003,10 @@
         <v>1</v>
       </c>
       <c r="Q274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="Q277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R277" t="b">
         <v>0</v>
@@ -20830,7 +20830,7 @@
         <v>1</v>
       </c>
       <c r="Q307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R307" t="b">
         <v>0</v>
@@ -20995,7 +20995,7 @@
         <v>0</v>
       </c>
       <c r="Q310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R310" t="b">
         <v>0</v>
@@ -22165,10 +22165,10 @@
         <v>1</v>
       </c>
       <c r="Q331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -22781,7 +22781,7 @@
         <v>0</v>
       </c>
       <c r="Q342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R342" t="b">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="Q360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R360" t="b">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>1</v>
       </c>
       <c r="Q362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R362" t="b">
         <v>0</v>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="Q420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R420" t="b">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="Q426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R426" t="b">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>1</v>
       </c>
       <c r="Q428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R428" t="b">
         <v>0</v>
@@ -28027,10 +28027,10 @@
         <v>1</v>
       </c>
       <c r="Q436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -29816,10 +29816,10 @@
         <v>1</v>
       </c>
       <c r="Q468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -30989,7 +30989,7 @@
         <v>0</v>
       </c>
       <c r="Q489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R489" t="b">
         <v>0</v>
@@ -32442,7 +32442,7 @@
         <v>0</v>
       </c>
       <c r="Q515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R515" t="b">
         <v>0</v>
@@ -32775,10 +32775,10 @@
         <v>1</v>
       </c>
       <c r="Q521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -33220,10 +33220,10 @@
         <v>1</v>
       </c>
       <c r="Q529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -33276,10 +33276,10 @@
         <v>1</v>
       </c>
       <c r="Q530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -33724,7 +33724,7 @@
         <v>1</v>
       </c>
       <c r="Q538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R538" t="b">
         <v>0</v>
@@ -34617,10 +34617,10 @@
         <v>1</v>
       </c>
       <c r="Q554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -34673,10 +34673,10 @@
         <v>1</v>
       </c>
       <c r="Q555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -37393,7 +37393,7 @@
         <v>1</v>
       </c>
       <c r="Q604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R604" t="b">
         <v>0</v>
@@ -38501,7 +38501,7 @@
         <v>0</v>
       </c>
       <c r="Q624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R624" t="b">
         <v>0</v>
@@ -38669,7 +38669,7 @@
         <v>0</v>
       </c>
       <c r="Q627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R627" t="b">
         <v>0</v>
@@ -39061,10 +39061,10 @@
         <v>1</v>
       </c>
       <c r="Q634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:18">
@@ -39117,10 +39117,10 @@
         <v>1</v>
       </c>
       <c r="Q635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:18">
@@ -39450,10 +39450,10 @@
         <v>1</v>
       </c>
       <c r="Q641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:18">
@@ -39895,10 +39895,10 @@
         <v>1</v>
       </c>
       <c r="Q649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:18">
@@ -40956,10 +40956,10 @@
         <v>1</v>
       </c>
       <c r="Q668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:18">
@@ -41068,7 +41068,7 @@
         <v>0</v>
       </c>
       <c r="Q670" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R670" t="b">
         <v>0</v>
@@ -42571,10 +42571,10 @@
         <v>1</v>
       </c>
       <c r="Q697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:18">
@@ -43635,7 +43635,7 @@
         <v>1</v>
       </c>
       <c r="Q716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R716" t="b">
         <v>0</v>
@@ -43803,7 +43803,7 @@
         <v>0</v>
       </c>
       <c r="Q719" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R719" t="b">
         <v>0</v>
@@ -43915,7 +43915,7 @@
         <v>0</v>
       </c>
       <c r="Q721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R721" t="b">
         <v>0</v>
@@ -44083,10 +44083,10 @@
         <v>1</v>
       </c>
       <c r="Q724" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R724" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:18">
@@ -44139,7 +44139,7 @@
         <v>0</v>
       </c>
       <c r="Q725" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R725" t="b">
         <v>0</v>
@@ -44525,10 +44525,10 @@
         <v>1</v>
       </c>
       <c r="Q732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:18">
@@ -44637,7 +44637,7 @@
         <v>0</v>
       </c>
       <c r="Q734" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R734" t="b">
         <v>0</v>
@@ -44693,7 +44693,7 @@
         <v>0</v>
       </c>
       <c r="Q735" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R735" t="b">
         <v>0</v>

--- a/cookie_compliance_analysis.xlsx
+++ b/cookie_compliance_analysis.xlsx
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -4173,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="b">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="b">
         <v>0</v>
@@ -5570,10 +5570,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="b">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="b">
         <v>0</v>
@@ -6242,10 +6242,10 @@
         <v>1</v>
       </c>
       <c r="Q45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="b">
         <v>0</v>
@@ -6690,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="b">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="b">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="b">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="b">
         <v>0</v>
@@ -7138,10 +7138,10 @@
         <v>1</v>
       </c>
       <c r="Q61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -7191,10 +7191,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" t="b">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="b">
         <v>0</v>
@@ -8081,10 +8081,10 @@
         <v>1</v>
       </c>
       <c r="Q78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -8302,10 +8302,10 @@
         <v>1</v>
       </c>
       <c r="Q82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" t="b">
         <v>0</v>
@@ -8915,10 +8915,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" t="b">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" t="b">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="Q112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" t="b">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="Q118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118" t="b">
         <v>0</v>
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="Q119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" t="b">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="Q122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" t="b">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="Q128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R128" t="b">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="Q138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138" t="b">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="Q149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149" t="b">
         <v>0</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="Q152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R152" t="b">
         <v>0</v>
@@ -12546,10 +12546,10 @@
         <v>1</v>
       </c>
       <c r="Q158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="Q160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R160" t="b">
         <v>0</v>
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="Q161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R161" t="b">
         <v>0</v>
@@ -12826,10 +12826,10 @@
         <v>1</v>
       </c>
       <c r="Q163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -12991,10 +12991,10 @@
         <v>1</v>
       </c>
       <c r="Q166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="Q167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R167" t="b">
         <v>0</v>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="Q170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R170" t="b">
         <v>0</v>
@@ -13492,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="Q175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R175" t="b">
         <v>0</v>
@@ -13548,10 +13548,10 @@
         <v>1</v>
       </c>
       <c r="Q176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -14049,10 +14049,10 @@
         <v>1</v>
       </c>
       <c r="Q185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -14329,10 +14329,10 @@
         <v>1</v>
       </c>
       <c r="Q190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="Q194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R194" t="b">
         <v>0</v>
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="Q199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R199" t="b">
         <v>0</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="Q203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203" t="b">
         <v>0</v>
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="Q205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R205" t="b">
         <v>0</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="Q206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206" t="b">
         <v>0</v>
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="Q211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R211" t="b">
         <v>0</v>
@@ -15664,7 +15664,7 @@
         <v>0</v>
       </c>
       <c r="Q214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R214" t="b">
         <v>0</v>
@@ -15776,10 +15776,10 @@
         <v>1</v>
       </c>
       <c r="Q216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="Q219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R219" t="b">
         <v>0</v>
@@ -16327,7 +16327,7 @@
         <v>0</v>
       </c>
       <c r="Q226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R226" t="b">
         <v>0</v>
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="Q242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R242" t="b">
         <v>0</v>
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="Q250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R250" t="b">
         <v>0</v>
@@ -17998,10 +17998,10 @@
         <v>1</v>
       </c>
       <c r="Q256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -18054,10 +18054,10 @@
         <v>1</v>
       </c>
       <c r="Q257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -18110,7 +18110,7 @@
         <v>0</v>
       </c>
       <c r="Q258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R258" t="b">
         <v>0</v>
@@ -18166,10 +18166,10 @@
         <v>1</v>
       </c>
       <c r="Q259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -18502,10 +18502,10 @@
         <v>1</v>
       </c>
       <c r="Q265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -18670,10 +18670,10 @@
         <v>1</v>
       </c>
       <c r="Q268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -18726,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="Q269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R269" t="b">
         <v>0</v>
@@ -19003,10 +19003,10 @@
         <v>1</v>
       </c>
       <c r="Q274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="Q277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R277" t="b">
         <v>0</v>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="Q280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R280" t="b">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>0</v>
       </c>
       <c r="Q284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R284" t="b">
         <v>0</v>
@@ -20665,7 +20665,7 @@
         <v>0</v>
       </c>
       <c r="Q304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R304" t="b">
         <v>0</v>
@@ -20830,7 +20830,7 @@
         <v>1</v>
       </c>
       <c r="Q307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R307" t="b">
         <v>0</v>
@@ -20995,7 +20995,7 @@
         <v>0</v>
       </c>
       <c r="Q310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R310" t="b">
         <v>0</v>
@@ -21163,7 +21163,7 @@
         <v>0</v>
       </c>
       <c r="Q313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R313" t="b">
         <v>0</v>
@@ -21219,7 +21219,7 @@
         <v>0</v>
       </c>
       <c r="Q314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R314" t="b">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="Q328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R328" t="b">
         <v>0</v>
@@ -22221,7 +22221,7 @@
         <v>0</v>
       </c>
       <c r="Q332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R332" t="b">
         <v>0</v>
@@ -22445,7 +22445,7 @@
         <v>0</v>
       </c>
       <c r="Q336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R336" t="b">
         <v>0</v>
@@ -22501,7 +22501,7 @@
         <v>0</v>
       </c>
       <c r="Q337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R337" t="b">
         <v>0</v>
@@ -22669,7 +22669,7 @@
         <v>0</v>
       </c>
       <c r="Q340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R340" t="b">
         <v>0</v>
@@ -22781,7 +22781,7 @@
         <v>0</v>
       </c>
       <c r="Q342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R342" t="b">
         <v>0</v>
@@ -22893,7 +22893,7 @@
         <v>0</v>
       </c>
       <c r="Q344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R344" t="b">
         <v>0</v>
@@ -23730,10 +23730,10 @@
         <v>1</v>
       </c>
       <c r="Q359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="Q360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R360" t="b">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>1</v>
       </c>
       <c r="Q362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R362" t="b">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="Q379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R379" t="b">
         <v>0</v>
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Q386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R386" t="b">
         <v>0</v>
@@ -25348,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="Q388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R388" t="b">
         <v>0</v>
@@ -25404,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="Q389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R389" t="b">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="Q394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R394" t="b">
         <v>0</v>
@@ -25964,10 +25964,10 @@
         <v>1</v>
       </c>
       <c r="Q399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -26185,7 +26185,7 @@
         <v>0</v>
       </c>
       <c r="Q403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R403" t="b">
         <v>0</v>
@@ -26297,10 +26297,10 @@
         <v>1</v>
       </c>
       <c r="Q405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -26742,7 +26742,7 @@
         <v>0</v>
       </c>
       <c r="Q413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R413" t="b">
         <v>0</v>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="Q420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R420" t="b">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="Q426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R426" t="b">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>1</v>
       </c>
       <c r="Q427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R427" t="b">
         <v>0</v>
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="Q443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R443" t="b">
         <v>0</v>
@@ -28587,7 +28587,7 @@
         <v>0</v>
       </c>
       <c r="Q446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R446" t="b">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="Q451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R451" t="b">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>1</v>
       </c>
       <c r="Q453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R453" t="b">
         <v>0</v>
@@ -29816,10 +29816,10 @@
         <v>1</v>
       </c>
       <c r="Q468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="Q472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R472" t="b">
         <v>0</v>
@@ -30208,7 +30208,7 @@
         <v>0</v>
       </c>
       <c r="Q475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R475" t="b">
         <v>0</v>
@@ -30488,7 +30488,7 @@
         <v>0</v>
       </c>
       <c r="Q480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R480" t="b">
         <v>0</v>
@@ -30768,7 +30768,7 @@
         <v>0</v>
       </c>
       <c r="Q485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R485" t="b">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="Q486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R486" t="b">
         <v>0</v>
@@ -30933,7 +30933,7 @@
         <v>0</v>
       </c>
       <c r="Q488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R488" t="b">
         <v>0</v>
@@ -30989,7 +30989,7 @@
         <v>0</v>
       </c>
       <c r="Q489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R489" t="b">
         <v>0</v>
@@ -31269,10 +31269,10 @@
         <v>1</v>
       </c>
       <c r="Q494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -31546,7 +31546,7 @@
         <v>0</v>
       </c>
       <c r="Q499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R499" t="b">
         <v>0</v>
@@ -31938,10 +31938,10 @@
         <v>1</v>
       </c>
       <c r="Q506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -32106,7 +32106,7 @@
         <v>0</v>
       </c>
       <c r="Q509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R509" t="b">
         <v>0</v>
@@ -32330,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="Q513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R513" t="b">
         <v>0</v>
@@ -32442,7 +32442,7 @@
         <v>0</v>
       </c>
       <c r="Q515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R515" t="b">
         <v>0</v>
@@ -32498,7 +32498,7 @@
         <v>1</v>
       </c>
       <c r="Q516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R516" t="b">
         <v>0</v>
@@ -32663,7 +32663,7 @@
         <v>0</v>
       </c>
       <c r="Q519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R519" t="b">
         <v>0</v>
@@ -32775,10 +32775,10 @@
         <v>1</v>
       </c>
       <c r="Q521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -32887,7 +32887,7 @@
         <v>0</v>
       </c>
       <c r="Q523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R523" t="b">
         <v>0</v>
@@ -32999,10 +32999,10 @@
         <v>1</v>
       </c>
       <c r="Q525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -33220,10 +33220,10 @@
         <v>1</v>
       </c>
       <c r="Q529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -33276,10 +33276,10 @@
         <v>1</v>
       </c>
       <c r="Q530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="Q531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R531" t="b">
         <v>0</v>
@@ -33724,7 +33724,7 @@
         <v>1</v>
       </c>
       <c r="Q538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R538" t="b">
         <v>0</v>
@@ -34340,7 +34340,7 @@
         <v>0</v>
       </c>
       <c r="Q549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R549" t="b">
         <v>0</v>
@@ -34452,7 +34452,7 @@
         <v>0</v>
       </c>
       <c r="Q551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R551" t="b">
         <v>0</v>
@@ -34508,7 +34508,7 @@
         <v>0</v>
       </c>
       <c r="Q552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R552" t="b">
         <v>0</v>
@@ -34617,10 +34617,10 @@
         <v>1</v>
       </c>
       <c r="Q554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -34673,10 +34673,10 @@
         <v>1</v>
       </c>
       <c r="Q555" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R555" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -34782,7 +34782,7 @@
         <v>0</v>
       </c>
       <c r="Q557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R557" t="b">
         <v>0</v>
@@ -35224,7 +35224,7 @@
         <v>0</v>
       </c>
       <c r="Q565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R565" t="b">
         <v>0</v>
@@ -35277,7 +35277,7 @@
         <v>0</v>
       </c>
       <c r="Q566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R566" t="b">
         <v>0</v>
@@ -35389,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="Q568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R568" t="b">
         <v>0</v>
@@ -35445,7 +35445,7 @@
         <v>0</v>
       </c>
       <c r="Q569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R569" t="b">
         <v>0</v>
@@ -36111,10 +36111,10 @@
         <v>1</v>
       </c>
       <c r="Q581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:18">
@@ -36727,7 +36727,7 @@
         <v>1</v>
       </c>
       <c r="Q592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R592" t="b">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>1</v>
       </c>
       <c r="Q604" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R604" t="b">
         <v>0</v>
@@ -38112,7 +38112,7 @@
         <v>0</v>
       </c>
       <c r="Q617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R617" t="b">
         <v>0</v>
@@ -38501,7 +38501,7 @@
         <v>0</v>
       </c>
       <c r="Q624" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R624" t="b">
         <v>0</v>
@@ -38669,7 +38669,7 @@
         <v>0</v>
       </c>
       <c r="Q627" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R627" t="b">
         <v>0</v>
@@ -39061,10 +39061,10 @@
         <v>1</v>
       </c>
       <c r="Q634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:18">
@@ -39450,10 +39450,10 @@
         <v>1</v>
       </c>
       <c r="Q641" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R641" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:18">
@@ -39783,7 +39783,7 @@
         <v>0</v>
       </c>
       <c r="Q647" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R647" t="b">
         <v>0</v>
@@ -39895,10 +39895,10 @@
         <v>1</v>
       </c>
       <c r="Q649" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R649" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:18">
@@ -39948,10 +39948,10 @@
         <v>1</v>
       </c>
       <c r="Q650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:18">
@@ -40060,7 +40060,7 @@
         <v>0</v>
       </c>
       <c r="Q652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R652" t="b">
         <v>0</v>
@@ -40172,7 +40172,7 @@
         <v>0</v>
       </c>
       <c r="Q654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R654" t="b">
         <v>0</v>
@@ -40620,7 +40620,7 @@
         <v>0</v>
       </c>
       <c r="Q662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R662" t="b">
         <v>0</v>
@@ -40956,10 +40956,10 @@
         <v>1</v>
       </c>
       <c r="Q668" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R668" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:18">
@@ -41012,7 +41012,7 @@
         <v>0</v>
       </c>
       <c r="Q669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R669" t="b">
         <v>0</v>
@@ -41068,7 +41068,7 @@
         <v>0</v>
       </c>
       <c r="Q670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R670" t="b">
         <v>0</v>
@@ -41236,10 +41236,10 @@
         <v>1</v>
       </c>
       <c r="Q673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:18">
@@ -41681,7 +41681,7 @@
         <v>0</v>
       </c>
       <c r="Q681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R681" t="b">
         <v>0</v>
@@ -41846,7 +41846,7 @@
         <v>0</v>
       </c>
       <c r="Q684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R684" t="b">
         <v>0</v>
@@ -42014,7 +42014,7 @@
         <v>0</v>
       </c>
       <c r="Q687" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R687" t="b">
         <v>0</v>
@@ -42126,7 +42126,7 @@
         <v>0</v>
       </c>
       <c r="Q689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R689" t="b">
         <v>0</v>
@@ -42238,7 +42238,7 @@
         <v>1</v>
       </c>
       <c r="Q691" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R691" t="b">
         <v>0</v>
@@ -42294,7 +42294,7 @@
         <v>0</v>
       </c>
       <c r="Q692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R692" t="b">
         <v>0</v>
@@ -42406,7 +42406,7 @@
         <v>0</v>
       </c>
       <c r="Q694" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R694" t="b">
         <v>0</v>
@@ -42571,10 +42571,10 @@
         <v>1</v>
       </c>
       <c r="Q697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:18">
@@ -42851,7 +42851,7 @@
         <v>0</v>
       </c>
       <c r="Q702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R702" t="b">
         <v>0</v>
@@ -42963,10 +42963,10 @@
         <v>1</v>
       </c>
       <c r="Q704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:18">
@@ -43187,7 +43187,7 @@
         <v>0</v>
       </c>
       <c r="Q708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R708" t="b">
         <v>0</v>
@@ -43523,7 +43523,7 @@
         <v>0</v>
       </c>
       <c r="Q714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R714" t="b">
         <v>0</v>
@@ -43635,7 +43635,7 @@
         <v>1</v>
       </c>
       <c r="Q716" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R716" t="b">
         <v>0</v>
@@ -43803,7 +43803,7 @@
         <v>0</v>
       </c>
       <c r="Q719" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R719" t="b">
         <v>0</v>
@@ -43915,7 +43915,7 @@
         <v>0</v>
       </c>
       <c r="Q721" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R721" t="b">
         <v>0</v>
@@ -44083,10 +44083,10 @@
         <v>1</v>
       </c>
       <c r="Q724" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R724" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:18">
@@ -44139,7 +44139,7 @@
         <v>0</v>
       </c>
       <c r="Q725" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R725" t="b">
         <v>0</v>
@@ -44251,10 +44251,10 @@
         <v>1</v>
       </c>
       <c r="Q727" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R727" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:18">
@@ -44413,10 +44413,10 @@
         <v>1</v>
       </c>
       <c r="Q730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:18">
@@ -44469,7 +44469,7 @@
         <v>0</v>
       </c>
       <c r="Q731" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R731" t="b">
         <v>0</v>
@@ -44525,10 +44525,10 @@
         <v>1</v>
       </c>
       <c r="Q732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:18">
@@ -44637,7 +44637,7 @@
         <v>0</v>
       </c>
       <c r="Q734" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R734" t="b">
         <v>0</v>
@@ -44693,7 +44693,7 @@
         <v>0</v>
       </c>
       <c r="Q735" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R735" t="b">
         <v>0</v>
@@ -45138,7 +45138,7 @@
         <v>0</v>
       </c>
       <c r="Q743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R743" t="b">
         <v>0</v>
@@ -45306,7 +45306,7 @@
         <v>0</v>
       </c>
       <c r="Q746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R746" t="b">
         <v>0</v>

--- a/cookie_compliance_analysis.xlsx
+++ b/cookie_compliance_analysis.xlsx
@@ -61,10 +61,10 @@
     <t>Retention compliant</t>
   </si>
   <si>
-    <t>Banner_compliant</t>
-  </si>
-  <si>
-    <t>Policy compliant</t>
+    <t>Consent_compliant</t>
+  </si>
+  <si>
+    <t>Transparency compliant</t>
   </si>
   <si>
     <t>Is compliant</t>

--- a/cookie_compliance_analysis.xlsx
+++ b/cookie_compliance_analysis.xlsx
@@ -5116,7 +5116,7 @@
         <v>861</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>861</v>
       </c>
       <c r="O63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>860</v>
       </c>
       <c r="O69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -7798,7 +7798,7 @@
         <v>860</v>
       </c>
       <c r="O73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="R73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -7907,7 +7907,7 @@
         <v>860</v>
       </c>
       <c r="O75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="R75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -8741,7 +8741,7 @@
         <v>861</v>
       </c>
       <c r="O90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>861</v>
       </c>
       <c r="O104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>861</v>
       </c>
       <c r="O123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>860</v>
       </c>
       <c r="O130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
@@ -12207,7 +12207,7 @@
         <v>861</v>
       </c>
       <c r="O152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P152" t="b">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>861</v>
       </c>
       <c r="O157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157" t="b">
         <v>0</v>
@@ -12652,7 +12652,7 @@
         <v>861</v>
       </c>
       <c r="O160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P160" t="b">
         <v>0</v>
@@ -12929,7 +12929,7 @@
         <v>860</v>
       </c>
       <c r="O165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165" t="b">
         <v>1</v>
@@ -12938,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="R165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -13598,7 +13598,7 @@
         <v>861</v>
       </c>
       <c r="O177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P177" t="b">
         <v>0</v>
@@ -15051,7 +15051,7 @@
         <v>861</v>
       </c>
       <c r="O203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P203" t="b">
         <v>0</v>
@@ -15275,7 +15275,7 @@
         <v>861</v>
       </c>
       <c r="O207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P207" t="b">
         <v>0</v>
@@ -15770,7 +15770,7 @@
         <v>860</v>
       </c>
       <c r="O216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P216" t="b">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>1</v>
       </c>
       <c r="R216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -16044,7 +16044,7 @@
         <v>860</v>
       </c>
       <c r="O221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P221" t="b">
         <v>1</v>
@@ -16053,7 +16053,7 @@
         <v>1</v>
       </c>
       <c r="R221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -16934,7 +16934,7 @@
         <v>861</v>
       </c>
       <c r="O237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P237" t="b">
         <v>0</v>
@@ -17491,7 +17491,7 @@
         <v>860</v>
       </c>
       <c r="O247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P247" t="b">
         <v>1</v>
@@ -17600,7 +17600,7 @@
         <v>861</v>
       </c>
       <c r="O249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P249" t="b">
         <v>0</v>
@@ -18608,7 +18608,7 @@
         <v>860</v>
       </c>
       <c r="O267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P267" t="b">
         <v>1</v>
@@ -18617,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="R267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -19274,7 +19274,7 @@
         <v>860</v>
       </c>
       <c r="O279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P279" t="b">
         <v>1</v>
@@ -19666,7 +19666,7 @@
         <v>860</v>
       </c>
       <c r="O286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P286" t="b">
         <v>1</v>
@@ -20108,7 +20108,7 @@
         <v>861</v>
       </c>
       <c r="O294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P294" t="b">
         <v>0</v>
@@ -21714,7 +21714,7 @@
         <v>860</v>
       </c>
       <c r="O323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P323" t="b">
         <v>1</v>
@@ -22775,7 +22775,7 @@
         <v>861</v>
       </c>
       <c r="O342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P342" t="b">
         <v>0</v>
@@ -25510,7 +25510,7 @@
         <v>861</v>
       </c>
       <c r="O391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P391" t="b">
         <v>0</v>
@@ -25622,7 +25622,7 @@
         <v>860</v>
       </c>
       <c r="O393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P393" t="b">
         <v>1</v>
@@ -26571,7 +26571,7 @@
         <v>861</v>
       </c>
       <c r="O410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P410" t="b">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>861</v>
       </c>
       <c r="O414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P414" t="b">
         <v>0</v>
@@ -27072,7 +27072,7 @@
         <v>860</v>
       </c>
       <c r="O419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P419" t="b">
         <v>1</v>
@@ -27081,7 +27081,7 @@
         <v>1</v>
       </c>
       <c r="R419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -28357,7 +28357,7 @@
         <v>860</v>
       </c>
       <c r="O442" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P442" t="b">
         <v>1</v>
@@ -28693,7 +28693,7 @@
         <v>861</v>
       </c>
       <c r="O448" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P448" t="b">
         <v>0</v>
@@ -29082,7 +29082,7 @@
         <v>861</v>
       </c>
       <c r="O455" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P455" t="b">
         <v>0</v>
@@ -30370,7 +30370,7 @@
         <v>861</v>
       </c>
       <c r="O478" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P478" t="b">
         <v>0</v>
@@ -30871,7 +30871,7 @@
         <v>861</v>
       </c>
       <c r="O487" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P487" t="b">
         <v>0</v>
@@ -31375,7 +31375,7 @@
         <v>860</v>
       </c>
       <c r="O496" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P496" t="b">
         <v>1</v>
@@ -31487,7 +31487,7 @@
         <v>861</v>
       </c>
       <c r="O498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P498" t="b">
         <v>0</v>
@@ -31932,7 +31932,7 @@
         <v>860</v>
       </c>
       <c r="O506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P506" t="b">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         <v>1</v>
       </c>
       <c r="R506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -32044,7 +32044,7 @@
         <v>860</v>
       </c>
       <c r="O508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P508" t="b">
         <v>1</v>
@@ -32324,7 +32324,7 @@
         <v>861</v>
       </c>
       <c r="O513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P513" t="b">
         <v>0</v>
@@ -32601,7 +32601,7 @@
         <v>861</v>
       </c>
       <c r="O518" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P518" t="b">
         <v>0</v>
@@ -32713,7 +32713,7 @@
         <v>861</v>
       </c>
       <c r="O520" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P520" t="b">
         <v>0</v>
@@ -33158,7 +33158,7 @@
         <v>861</v>
       </c>
       <c r="O528" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P528" t="b">
         <v>0</v>
@@ -34110,7 +34110,7 @@
         <v>861</v>
       </c>
       <c r="O545" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P545" t="b">
         <v>0</v>
@@ -34334,7 +34334,7 @@
         <v>861</v>
       </c>
       <c r="O549" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P549" t="b">
         <v>0</v>
@@ -35327,7 +35327,7 @@
         <v>861</v>
       </c>
       <c r="O567" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P567" t="b">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>861</v>
       </c>
       <c r="O570" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P570" t="b">
         <v>0</v>
@@ -36161,7 +36161,7 @@
         <v>861</v>
       </c>
       <c r="O582" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P582" t="b">
         <v>0</v>
@@ -36329,7 +36329,7 @@
         <v>861</v>
       </c>
       <c r="O585" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P585" t="b">
         <v>0</v>
@@ -36830,7 +36830,7 @@
         <v>861</v>
       </c>
       <c r="O594" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P594" t="b">
         <v>0</v>
@@ -36942,7 +36942,7 @@
         <v>861</v>
       </c>
       <c r="O596" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P596" t="b">
         <v>0</v>
@@ -37054,7 +37054,7 @@
         <v>861</v>
       </c>
       <c r="O598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P598" t="b">
         <v>0</v>
@@ -37611,7 +37611,7 @@
         <v>861</v>
       </c>
       <c r="O608" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P608" t="b">
         <v>0</v>
@@ -37723,7 +37723,7 @@
         <v>861</v>
       </c>
       <c r="O610" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P610" t="b">
         <v>0</v>
@@ -38271,7 +38271,7 @@
         <v>861</v>
       </c>
       <c r="O620" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P620" t="b">
         <v>0</v>
@@ -38999,7 +38999,7 @@
         <v>861</v>
       </c>
       <c r="O633" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P633" t="b">
         <v>0</v>
@@ -39223,7 +39223,7 @@
         <v>860</v>
       </c>
       <c r="O637" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P637" t="b">
         <v>1</v>
@@ -39665,7 +39665,7 @@
         <v>861</v>
       </c>
       <c r="O645" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P645" t="b">
         <v>0</v>
@@ -39998,7 +39998,7 @@
         <v>860</v>
       </c>
       <c r="O651" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P651" t="b">
         <v>1</v>
@@ -40278,7 +40278,7 @@
         <v>860</v>
       </c>
       <c r="O656" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P656" t="b">
         <v>1</v>
@@ -40287,7 +40287,7 @@
         <v>1</v>
       </c>
       <c r="R656" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:18">
@@ -41062,7 +41062,7 @@
         <v>861</v>
       </c>
       <c r="O670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P670" t="b">
         <v>0</v>
@@ -41342,7 +41342,7 @@
         <v>861</v>
       </c>
       <c r="O675" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P675" t="b">
         <v>0</v>
@@ -42621,7 +42621,7 @@
         <v>861</v>
       </c>
       <c r="O698" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P698" t="b">
         <v>0</v>
@@ -43013,7 +43013,7 @@
         <v>861</v>
       </c>
       <c r="O705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P705" t="b">
         <v>0</v>
@@ -43517,7 +43517,7 @@
         <v>861</v>
       </c>
       <c r="O714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P714" t="b">
         <v>0</v>
@@ -44133,7 +44133,7 @@
         <v>861</v>
       </c>
       <c r="O725" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P725" t="b">
         <v>0</v>
@@ -44351,7 +44351,7 @@
         <v>861</v>
       </c>
       <c r="O729" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P729" t="b">
         <v>0</v>
@@ -45300,7 +45300,7 @@
         <v>861</v>
       </c>
       <c r="O746" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P746" t="b">
         <v>0</v>

--- a/cookie_compliance_analysis.xlsx
+++ b/cookie_compliance_analysis.xlsx
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="b">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="b">
         <v>1</v>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="b">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="b">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="b">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="b">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="b">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -6855,13 +6855,13 @@
         <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="b">
         <v>1</v>
       </c>
       <c r="R56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -7023,13 +7023,13 @@
         <v>1</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="b">
         <v>1</v>
       </c>
       <c r="R59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="b">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="b">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="b">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="b">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" t="b">
         <v>0</v>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="b">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="b">
         <v>0</v>
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" t="b">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92" t="b">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="b">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104" t="b">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" t="b">
         <v>0</v>
@@ -10368,13 +10368,13 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119" t="b">
         <v>1</v>
       </c>
       <c r="R119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -10704,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" t="b">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" t="b">
         <v>0</v>
@@ -10928,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129" t="b">
         <v>0</v>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" t="b">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134" t="b">
         <v>0</v>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="P149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q149" t="b">
         <v>0</v>
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q150" t="b">
         <v>0</v>
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="P160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160" t="b">
         <v>1</v>
@@ -12711,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q161" t="b">
         <v>0</v>
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q164" t="b">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="P167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q167" t="b">
         <v>0</v>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="P170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q170" t="b">
         <v>1</v>
@@ -13321,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q172" t="b">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q180" t="b">
         <v>0</v>
@@ -13881,13 +13881,13 @@
         <v>1</v>
       </c>
       <c r="P182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q182" t="b">
         <v>1</v>
       </c>
       <c r="R182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q188" t="b">
         <v>0</v>
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="P196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q196" t="b">
         <v>0</v>
@@ -14942,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q201" t="b">
         <v>0</v>
@@ -15222,13 +15222,13 @@
         <v>1</v>
       </c>
       <c r="P206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q206" t="b">
         <v>1</v>
       </c>
       <c r="R206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -15829,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q217" t="b">
         <v>0</v>
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q220" t="b">
         <v>0</v>
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="P227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q227" t="b">
         <v>0</v>
@@ -16713,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q233" t="b">
         <v>0</v>
@@ -16769,7 +16769,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q234" t="b">
         <v>0</v>
@@ -16993,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="P238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q238" t="b">
         <v>0</v>
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q239" t="b">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q240" t="b">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="P250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q250" t="b">
         <v>1</v>
@@ -17883,7 +17883,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q254" t="b">
         <v>0</v>
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q264" t="b">
         <v>0</v>
@@ -18555,7 +18555,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q266" t="b">
         <v>0</v>
@@ -18723,13 +18723,13 @@
         <v>1</v>
       </c>
       <c r="P269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q269" t="b">
         <v>1</v>
       </c>
       <c r="R269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -19389,7 +19389,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q281" t="b">
         <v>0</v>
@@ -19557,13 +19557,13 @@
         <v>1</v>
       </c>
       <c r="P284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q284" t="b">
         <v>1</v>
       </c>
       <c r="R284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -19613,7 +19613,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q285" t="b">
         <v>0</v>
@@ -19725,7 +19725,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q287" t="b">
         <v>0</v>
@@ -19781,7 +19781,7 @@
         <v>0</v>
       </c>
       <c r="P288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q288" t="b">
         <v>0</v>
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q289" t="b">
         <v>0</v>
@@ -20771,7 +20771,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q306" t="b">
         <v>0</v>
@@ -21272,7 +21272,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q315" t="b">
         <v>0</v>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="P317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q317" t="b">
         <v>0</v>
@@ -21605,7 +21605,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q321" t="b">
         <v>0</v>
@@ -21829,7 +21829,7 @@
         <v>0</v>
       </c>
       <c r="P325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q325" t="b">
         <v>0</v>
@@ -21885,7 +21885,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q326" t="b">
         <v>0</v>
@@ -22050,7 +22050,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q329" t="b">
         <v>0</v>
@@ -22106,7 +22106,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q330" t="b">
         <v>0</v>
@@ -22666,13 +22666,13 @@
         <v>1</v>
       </c>
       <c r="P340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q340" t="b">
         <v>1</v>
       </c>
       <c r="R340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -22834,7 +22834,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q343" t="b">
         <v>0</v>
@@ -22890,13 +22890,13 @@
         <v>1</v>
       </c>
       <c r="P344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q344" t="b">
         <v>1</v>
       </c>
       <c r="R344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -22946,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="P345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q345" t="b">
         <v>1</v>
@@ -23226,7 +23226,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q350" t="b">
         <v>0</v>
@@ -23282,7 +23282,7 @@
         <v>0</v>
       </c>
       <c r="P351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q351" t="b">
         <v>0</v>
@@ -23450,7 +23450,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q354" t="b">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q355" t="b">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q357" t="b">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q360" t="b">
         <v>0</v>
@@ -24004,7 +24004,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q364" t="b">
         <v>0</v>
@@ -24396,7 +24396,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q371" t="b">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q372" t="b">
         <v>0</v>
@@ -24620,7 +24620,7 @@
         <v>0</v>
       </c>
       <c r="P375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q375" t="b">
         <v>0</v>
@@ -25233,13 +25233,13 @@
         <v>1</v>
       </c>
       <c r="P386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q386" t="b">
         <v>1</v>
       </c>
       <c r="R386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -26518,7 +26518,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q409" t="b">
         <v>0</v>
@@ -27019,7 +27019,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q418" t="b">
         <v>0</v>
@@ -27243,7 +27243,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q422" t="b">
         <v>0</v>
@@ -27355,7 +27355,7 @@
         <v>0</v>
       </c>
       <c r="P424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q424" t="b">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="P426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q426" t="b">
         <v>0</v>
@@ -27632,7 +27632,7 @@
         <v>0</v>
       </c>
       <c r="P429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q429" t="b">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q440" t="b">
         <v>0</v>
@@ -28528,7 +28528,7 @@
         <v>0</v>
       </c>
       <c r="P445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q445" t="b">
         <v>0</v>
@@ -28584,13 +28584,13 @@
         <v>1</v>
       </c>
       <c r="P446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q446" t="b">
         <v>1</v>
       </c>
       <c r="R446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -28640,7 +28640,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q447" t="b">
         <v>0</v>
@@ -28696,7 +28696,7 @@
         <v>0</v>
       </c>
       <c r="P448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q448" t="b">
         <v>0</v>
@@ -29141,7 +29141,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q456" t="b">
         <v>0</v>
@@ -29197,7 +29197,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q457" t="b">
         <v>0</v>
@@ -29421,7 +29421,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q461" t="b">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q462" t="b">
         <v>0</v>
@@ -29981,7 +29981,7 @@
         <v>0</v>
       </c>
       <c r="P471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q471" t="b">
         <v>0</v>
@@ -30205,13 +30205,13 @@
         <v>1</v>
       </c>
       <c r="P475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q475" t="b">
         <v>1</v>
       </c>
       <c r="R475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -30261,7 +30261,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q476" t="b">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q479" t="b">
         <v>0</v>
@@ -30485,7 +30485,7 @@
         <v>0</v>
       </c>
       <c r="P480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q480" t="b">
         <v>1</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q481" t="b">
         <v>0</v>
@@ -30597,7 +30597,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q482" t="b">
         <v>0</v>
@@ -30765,13 +30765,13 @@
         <v>1</v>
       </c>
       <c r="P485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q485" t="b">
         <v>1</v>
       </c>
       <c r="R485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -30930,13 +30930,13 @@
         <v>1</v>
       </c>
       <c r="P488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q488" t="b">
         <v>1</v>
       </c>
       <c r="R488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -31042,7 +31042,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q490" t="b">
         <v>0</v>
@@ -32103,13 +32103,13 @@
         <v>1</v>
       </c>
       <c r="P509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q509" t="b">
         <v>1</v>
       </c>
       <c r="R509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -32439,7 +32439,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q515" t="b">
         <v>0</v>
@@ -33441,7 +33441,7 @@
         <v>0</v>
       </c>
       <c r="P533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q533" t="b">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q534" t="b">
         <v>0</v>
@@ -33833,7 +33833,7 @@
         <v>0</v>
       </c>
       <c r="P540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q540" t="b">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q541" t="b">
         <v>0</v>
@@ -34113,7 +34113,7 @@
         <v>0</v>
       </c>
       <c r="P545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q545" t="b">
         <v>0</v>
@@ -34169,7 +34169,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q546" t="b">
         <v>0</v>
@@ -34891,7 +34891,7 @@
         <v>0</v>
       </c>
       <c r="P559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q559" t="b">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q563" t="b">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="P570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q570" t="b">
         <v>0</v>
@@ -35610,7 +35610,7 @@
         <v>0</v>
       </c>
       <c r="P572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q572" t="b">
         <v>0</v>
@@ -35775,7 +35775,7 @@
         <v>0</v>
       </c>
       <c r="P575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q575" t="b">
         <v>0</v>
@@ -35996,7 +35996,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q579" t="b">
         <v>0</v>
@@ -36164,7 +36164,7 @@
         <v>0</v>
       </c>
       <c r="P582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q582" t="b">
         <v>0</v>
@@ -36332,7 +36332,7 @@
         <v>0</v>
       </c>
       <c r="P585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q585" t="b">
         <v>0</v>
@@ -36945,7 +36945,7 @@
         <v>0</v>
       </c>
       <c r="P596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q596" t="b">
         <v>0</v>
@@ -37113,7 +37113,7 @@
         <v>1</v>
       </c>
       <c r="P599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q599" t="b">
         <v>0</v>
@@ -37222,7 +37222,7 @@
         <v>1</v>
       </c>
       <c r="P601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q601" t="b">
         <v>0</v>
@@ -37502,7 +37502,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q606" t="b">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q607" t="b">
         <v>0</v>
@@ -38274,7 +38274,7 @@
         <v>0</v>
       </c>
       <c r="P620" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q620" t="b">
         <v>0</v>
@@ -38498,7 +38498,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q624" t="b">
         <v>0</v>
@@ -38666,7 +38666,7 @@
         <v>0</v>
       </c>
       <c r="P627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q627" t="b">
         <v>0</v>
@@ -38946,7 +38946,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q632" t="b">
         <v>0</v>
@@ -39002,7 +39002,7 @@
         <v>0</v>
       </c>
       <c r="P633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q633" t="b">
         <v>0</v>
@@ -39559,7 +39559,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q643" t="b">
         <v>0</v>
@@ -40169,7 +40169,7 @@
         <v>0</v>
       </c>
       <c r="P654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q654" t="b">
         <v>1</v>
@@ -40393,7 +40393,7 @@
         <v>0</v>
       </c>
       <c r="P658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q658" t="b">
         <v>0</v>
@@ -40449,7 +40449,7 @@
         <v>1</v>
       </c>
       <c r="P659" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q659" t="b">
         <v>0</v>
@@ -40561,7 +40561,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q661" t="b">
         <v>0</v>
@@ -40617,13 +40617,13 @@
         <v>1</v>
       </c>
       <c r="P662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q662" t="b">
         <v>1</v>
       </c>
       <c r="R662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:18">
@@ -40729,7 +40729,7 @@
         <v>0</v>
       </c>
       <c r="P664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q664" t="b">
         <v>0</v>
@@ -40841,7 +40841,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q666" t="b">
         <v>0</v>
@@ -41009,13 +41009,13 @@
         <v>1</v>
       </c>
       <c r="P669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q669" t="b">
         <v>1</v>
       </c>
       <c r="R669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:18">
@@ -41121,7 +41121,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q671" t="b">
         <v>0</v>
@@ -41401,7 +41401,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q676" t="b">
         <v>0</v>
@@ -41566,7 +41566,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q679" t="b">
         <v>0</v>
@@ -42123,13 +42123,13 @@
         <v>1</v>
       </c>
       <c r="P689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q689" t="b">
         <v>1</v>
       </c>
       <c r="R689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:18">
@@ -42291,13 +42291,13 @@
         <v>1</v>
       </c>
       <c r="P692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q692" t="b">
         <v>1</v>
       </c>
       <c r="R692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:18">
@@ -42624,7 +42624,7 @@
         <v>0</v>
       </c>
       <c r="P698" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q698" t="b">
         <v>0</v>
@@ -43128,7 +43128,7 @@
         <v>0</v>
       </c>
       <c r="P707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q707" t="b">
         <v>0</v>
@@ -43184,7 +43184,7 @@
         <v>0</v>
       </c>
       <c r="P708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q708" t="b">
         <v>1</v>
@@ -43296,7 +43296,7 @@
         <v>1</v>
       </c>
       <c r="P710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q710" t="b">
         <v>0</v>
@@ -43464,7 +43464,7 @@
         <v>1</v>
       </c>
       <c r="P713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q713" t="b">
         <v>0</v>
@@ -43856,7 +43856,7 @@
         <v>1</v>
       </c>
       <c r="P720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q720" t="b">
         <v>0</v>
@@ -43912,7 +43912,7 @@
         <v>1</v>
       </c>
       <c r="P721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q721" t="b">
         <v>0</v>
@@ -44136,7 +44136,7 @@
         <v>0</v>
       </c>
       <c r="P725" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q725" t="b">
         <v>0</v>
@@ -44855,7 +44855,7 @@
         <v>0</v>
       </c>
       <c r="P738" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q738" t="b">
         <v>0</v>
@@ -44967,7 +44967,7 @@
         <v>1</v>
       </c>
       <c r="P740" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q740" t="b">
         <v>0</v>
@@ -45135,13 +45135,13 @@
         <v>1</v>
       </c>
       <c r="P743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q743" t="b">
         <v>1</v>
       </c>
       <c r="R743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:18">
@@ -45415,7 +45415,7 @@
         <v>0</v>
       </c>
       <c r="P748" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q748" t="b">
         <v>0</v>
@@ -45524,7 +45524,7 @@
         <v>1</v>
       </c>
       <c r="P750" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q750" t="b">
         <v>0</v>
